--- a/src/test/resources/testData/testData.xlsx
+++ b/src/test/resources/testData/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\IdeaProjects\practiceCucumber_automationexercise\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAABD3B0-CE12-459E-950C-B3C6B2FE0A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E6EA2C-B9FB-4087-AEFA-EF96013BAF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3756" yWindow="336" windowWidth="17280" windowHeight="11628" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Password</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>123456</t>
+  </si>
+  <si>
+    <t>elif@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -95,6 +98,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -376,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -404,11 +408,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>456987</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{F985F1EE-C03E-4FE9-A3FE-BCF899784DD4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{374474A4-27E7-4CE4-8140-BAB6B43361AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>